--- a/Data/utilisation_ratio_state_wise_2010_2019.xlsx
+++ b/Data/utilisation_ratio_state_wise_2010_2019.xlsx
@@ -1,166 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>State.UT</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>A&amp;N ISLANDS</t>
-  </si>
-  <si>
-    <t>ANDHRA PR</t>
-  </si>
-  <si>
-    <t>ARUNACHAL</t>
-  </si>
-  <si>
-    <t>ASSAM</t>
-  </si>
-  <si>
-    <t>BIHAR</t>
-  </si>
-  <si>
-    <t>CHANDIGARH</t>
-  </si>
-  <si>
-    <t>CHHATTISGARH</t>
-  </si>
-  <si>
-    <t>D&amp;N HAVELI</t>
-  </si>
-  <si>
-    <t>DAMAN &amp; DIU</t>
-  </si>
-  <si>
-    <t>DELHI</t>
-  </si>
-  <si>
-    <t>GOA</t>
-  </si>
-  <si>
-    <t>GUJARAT</t>
-  </si>
-  <si>
-    <t>HARYANA</t>
-  </si>
-  <si>
-    <t>HIMACHAL</t>
-  </si>
-  <si>
-    <t>J &amp; K</t>
-  </si>
-  <si>
-    <t>JHARKHAND</t>
-  </si>
-  <si>
-    <t>KARNATAKA</t>
-  </si>
-  <si>
-    <t>KERALA</t>
-  </si>
-  <si>
-    <t>LAKSHADWEEP</t>
-  </si>
-  <si>
-    <t>MADHYA PR</t>
-  </si>
-  <si>
-    <t>MAHARASHTRA</t>
-  </si>
-  <si>
-    <t>MANIPUR</t>
-  </si>
-  <si>
-    <t>MEGHALAYA</t>
-  </si>
-  <si>
-    <t>MIZORAM</t>
-  </si>
-  <si>
-    <t>NAGALAND</t>
-  </si>
-  <si>
-    <t>ORISSA</t>
-  </si>
-  <si>
-    <t>PONDICHERRY</t>
-  </si>
-  <si>
-    <t>PUNJAB</t>
-  </si>
-  <si>
-    <t>RAJASTHAN</t>
-  </si>
-  <si>
-    <t>SIKKIM</t>
-  </si>
-  <si>
-    <t>TAMILNADU</t>
-  </si>
-  <si>
-    <t>TELANGANA</t>
-  </si>
-  <si>
-    <t>TRIPURA</t>
-  </si>
-  <si>
-    <t>UTTAR PR</t>
-  </si>
-  <si>
-    <t>UTTRANCHAL</t>
-  </si>
-  <si>
-    <t>WEST BENGAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">State.UT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&amp;N ISLANDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDHRA PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARUNACHAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANDIGARH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHHATTISGARH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;N HAVELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUJARAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARYANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIMACHAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J &amp; K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHARKHAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARNATAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAKSHADWEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADHYA PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHARASHTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGHALAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIZORAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAGALAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORISSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONDICHERRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNJAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJASTHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIKKIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMILNADU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELANGANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIPURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTTAR PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTTRANCHAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEST BENGAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -197,7 +217,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -479,19 +498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:K37"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,1257 +539,2024 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="K2" t="n">
         <v>0.27</v>
       </c>
-      <c r="E2">
+      <c r="L2" t="n">
         <v>0.08</v>
       </c>
-      <c r="F2">
+      <c r="M2" t="n">
         <v>0.54</v>
       </c>
-      <c r="G2">
+      <c r="N2" t="n">
         <v>0.61</v>
       </c>
-      <c r="H2">
+      <c r="O2" t="n">
         <v>0.68</v>
       </c>
-      <c r="I2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J2">
+      <c r="P2" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.59</v>
       </c>
-      <c r="K2">
+      <c r="R2" t="n">
         <v>0.31</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.76</v>
       </c>
-      <c r="C3">
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.74</v>
       </c>
-      <c r="D3">
+      <c r="K3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3">
+      <c r="L3" t="n">
         <v>0.83</v>
       </c>
-      <c r="F3">
+      <c r="M3" t="n">
         <v>0.96</v>
       </c>
-      <c r="G3">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="O3" t="n">
         <v>0.99</v>
       </c>
-      <c r="I3">
+      <c r="P3" t="n">
         <v>0.95</v>
       </c>
-      <c r="J3">
+      <c r="Q3" t="n">
         <v>0.98</v>
       </c>
-      <c r="K3">
+      <c r="R3" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.75</v>
       </c>
-      <c r="C4">
+      <c r="I4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.76</v>
       </c>
-      <c r="D4">
+      <c r="K4" t="n">
         <v>0.76</v>
       </c>
-      <c r="E4">
+      <c r="L4" t="n">
         <v>0.73</v>
       </c>
-      <c r="F4">
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="G4">
+      <c r="N4" t="n">
         <v>0.93</v>
       </c>
-      <c r="H4">
+      <c r="O4" t="n">
         <v>1.04</v>
       </c>
-      <c r="I4">
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="Q4" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4">
+      <c r="R4" t="n">
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.78</v>
       </c>
-      <c r="C5">
+      <c r="J5" t="n">
         <v>0.76</v>
       </c>
-      <c r="D5">
+      <c r="K5" t="n">
         <v>0.9</v>
       </c>
-      <c r="E5">
+      <c r="L5" t="n">
         <v>0.87</v>
       </c>
-      <c r="F5">
+      <c r="M5" t="n">
         <v>1.06</v>
       </c>
-      <c r="G5">
+      <c r="N5" t="n">
         <v>0.97</v>
       </c>
-      <c r="H5">
+      <c r="O5" t="n">
         <v>0.98</v>
       </c>
-      <c r="I5">
+      <c r="P5" t="n">
         <v>0.91</v>
       </c>
-      <c r="J5">
+      <c r="Q5" t="n">
         <v>0.96</v>
       </c>
-      <c r="K5">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="R5" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.76</v>
       </c>
-      <c r="C6">
+      <c r="J6" t="n">
         <v>0.7</v>
       </c>
-      <c r="D6">
+      <c r="K6" t="n">
         <v>0.69</v>
       </c>
-      <c r="E6">
+      <c r="L6" t="n">
         <v>0.8</v>
       </c>
-      <c r="F6">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="N6" t="n">
         <v>0.9</v>
       </c>
-      <c r="H6">
+      <c r="O6" t="n">
         <v>0.94</v>
       </c>
-      <c r="I6">
+      <c r="P6" t="n">
         <v>0.97</v>
       </c>
-      <c r="J6">
+      <c r="Q6" t="n">
         <v>0.94</v>
       </c>
-      <c r="K6">
+      <c r="R6" t="n">
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.47</v>
       </c>
-      <c r="C7">
+      <c r="J7" t="n">
         <v>0.72</v>
       </c>
-      <c r="D7">
+      <c r="K7" t="n">
         <v>0.31</v>
       </c>
-      <c r="E7">
+      <c r="L7" t="n">
         <v>0.32</v>
       </c>
-      <c r="F7">
+      <c r="M7" t="n">
         <v>1.34</v>
       </c>
-      <c r="G7">
+      <c r="N7" t="n">
         <v>2.9</v>
       </c>
-      <c r="H7">
+      <c r="O7" t="n">
         <v>26.63</v>
       </c>
-      <c r="I7">
+      <c r="P7" t="n">
         <v>25.91</v>
       </c>
-      <c r="J7">
+      <c r="Q7" t="n">
         <v>82.41</v>
       </c>
-      <c r="K7">
+      <c r="R7" t="n">
         <v>32.18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.93</v>
       </c>
-      <c r="C8">
+      <c r="G8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.86</v>
       </c>
-      <c r="D8">
+      <c r="K8" t="n">
         <v>0.87</v>
       </c>
-      <c r="E8">
+      <c r="L8" t="n">
         <v>0.84</v>
       </c>
-      <c r="F8">
+      <c r="M8" t="n">
         <v>1.01</v>
       </c>
-      <c r="G8">
+      <c r="N8" t="n">
         <v>0.97</v>
       </c>
-      <c r="H8">
+      <c r="O8" t="n">
         <v>0.93</v>
       </c>
-      <c r="I8">
+      <c r="P8" t="n">
         <v>0.97</v>
       </c>
-      <c r="J8">
+      <c r="Q8" t="n">
         <v>0.95</v>
       </c>
-      <c r="K8">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="R8" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.19</v>
       </c>
-      <c r="C9">
+      <c r="J9" t="n">
         <v>0.87</v>
       </c>
-      <c r="D9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E9">
+      <c r="K9" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.32</v>
       </c>
-      <c r="F9">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G9">
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.97</v>
       </c>
-      <c r="H9">
+      <c r="O9" t="n">
         <v>0.96</v>
       </c>
-      <c r="I9">
+      <c r="P9" t="n">
         <v>0.98</v>
       </c>
-      <c r="J9">
+      <c r="Q9" t="n">
         <v>0.85</v>
       </c>
-      <c r="K9">
+      <c r="R9" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.22</v>
       </c>
-      <c r="C10">
+      <c r="J10" t="n">
         <v>0.71</v>
       </c>
-      <c r="D10">
+      <c r="K10" t="n">
         <v>0.15</v>
       </c>
-      <c r="E10">
+      <c r="L10" t="n">
         <v>0.04</v>
       </c>
-      <c r="F10">
+      <c r="M10" t="n">
         <v>0.43</v>
       </c>
-      <c r="G10">
+      <c r="N10" t="n">
         <v>0.81</v>
       </c>
-      <c r="H10">
+      <c r="O10" t="n">
         <v>0.89</v>
       </c>
-      <c r="I10">
+      <c r="P10" t="n">
         <v>0.95</v>
       </c>
-      <c r="J10">
+      <c r="Q10" t="n">
         <v>0.85</v>
       </c>
-      <c r="K10">
+      <c r="R10" t="n">
         <v>0.72</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.73</v>
       </c>
-      <c r="C11">
+      <c r="J11" t="n">
         <v>0.71</v>
       </c>
-      <c r="D11">
+      <c r="K11" t="n">
         <v>0.73</v>
       </c>
-      <c r="E11">
+      <c r="L11" t="n">
         <v>0.82</v>
       </c>
-      <c r="F11">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G11">
+      <c r="M11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.66</v>
       </c>
-      <c r="H11">
+      <c r="O11" t="n">
         <v>1.92</v>
       </c>
-      <c r="I11">
+      <c r="P11" t="n">
         <v>0.99</v>
       </c>
-      <c r="J11">
+      <c r="Q11" t="n">
         <v>0.92</v>
       </c>
-      <c r="K11">
+      <c r="R11" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.7</v>
       </c>
-      <c r="C12">
+      <c r="J12" t="n">
         <v>0.84</v>
       </c>
-      <c r="D12">
+      <c r="K12" t="n">
         <v>0.54</v>
       </c>
-      <c r="E12">
+      <c r="L12" t="n">
         <v>0.73</v>
       </c>
-      <c r="F12">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G12">
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.98</v>
       </c>
-      <c r="H12">
+      <c r="O12" t="n">
         <v>1.24</v>
       </c>
-      <c r="I12">
+      <c r="P12" t="n">
         <v>0.98</v>
       </c>
-      <c r="J12">
+      <c r="Q12" t="n">
         <v>1.22</v>
       </c>
-      <c r="K12">
+      <c r="R12" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.75</v>
       </c>
-      <c r="C13">
+      <c r="J13" t="n">
         <v>0.72</v>
       </c>
-      <c r="D13">
+      <c r="K13" t="n">
         <v>1.22</v>
       </c>
-      <c r="E13">
+      <c r="L13" t="n">
         <v>1.3</v>
       </c>
-      <c r="F13">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="N13" t="n">
         <v>0.97</v>
       </c>
-      <c r="H13">
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="P13" t="n">
         <v>1.01</v>
       </c>
-      <c r="J13">
+      <c r="Q13" t="n">
         <v>0.86</v>
       </c>
-      <c r="K13">
+      <c r="R13" t="n">
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.75</v>
       </c>
-      <c r="C14">
+      <c r="J14" t="n">
         <v>0.76</v>
       </c>
-      <c r="D14">
+      <c r="K14" t="n">
         <v>0.73</v>
       </c>
-      <c r="E14">
+      <c r="L14" t="n">
         <v>0.86</v>
       </c>
-      <c r="F14">
+      <c r="M14" t="n">
         <v>1.53</v>
       </c>
-      <c r="G14">
+      <c r="N14" t="n">
         <v>2.4</v>
       </c>
-      <c r="H14">
+      <c r="O14" t="n">
         <v>1.87</v>
       </c>
-      <c r="I14">
+      <c r="P14" t="n">
         <v>0.92</v>
       </c>
-      <c r="J14">
+      <c r="Q14" t="n">
         <v>4.5</v>
       </c>
-      <c r="K14">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="R14" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.75</v>
       </c>
-      <c r="C15">
+      <c r="I15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.86</v>
       </c>
-      <c r="D15">
+      <c r="K15" t="n">
         <v>0.85</v>
       </c>
-      <c r="E15">
+      <c r="L15" t="n">
         <v>0.9</v>
       </c>
-      <c r="F15">
+      <c r="M15" t="n">
         <v>1.07</v>
       </c>
-      <c r="G15">
+      <c r="N15" t="n">
         <v>1.01</v>
       </c>
-      <c r="H15">
+      <c r="O15" t="n">
         <v>1.04</v>
       </c>
-      <c r="I15">
+      <c r="P15" t="n">
         <v>0.97</v>
       </c>
-      <c r="J15">
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="R15" t="n">
         <v>0.84</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.76</v>
       </c>
-      <c r="C16">
+      <c r="J16" t="n">
         <v>0.88</v>
       </c>
-      <c r="D16">
+      <c r="K16" t="n">
         <v>0.85</v>
       </c>
-      <c r="E16">
+      <c r="L16" t="n">
         <v>0.87</v>
       </c>
-      <c r="F16">
+      <c r="M16" t="n">
         <v>1.08</v>
       </c>
-      <c r="G16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H16">
+      <c r="N16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.48</v>
       </c>
-      <c r="I16">
+      <c r="P16" t="n">
         <v>1.19</v>
       </c>
-      <c r="J16">
+      <c r="Q16" t="n">
         <v>1.28</v>
       </c>
-      <c r="K16">
+      <c r="R16" t="n">
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.71</v>
       </c>
-      <c r="C17">
+      <c r="J17" t="n">
         <v>0.7</v>
       </c>
-      <c r="D17">
+      <c r="K17" t="n">
         <v>0.72</v>
       </c>
-      <c r="E17">
+      <c r="L17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F17">
+      <c r="M17" t="n">
         <v>0.77</v>
       </c>
-      <c r="G17">
+      <c r="N17" t="n">
         <v>0.78</v>
       </c>
-      <c r="H17">
+      <c r="O17" t="n">
         <v>0.91</v>
       </c>
-      <c r="I17">
+      <c r="P17" t="n">
         <v>0.93</v>
       </c>
-      <c r="J17">
+      <c r="Q17" t="n">
         <v>0.97</v>
       </c>
-      <c r="K17">
+      <c r="R17" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.78</v>
       </c>
-      <c r="C18">
+      <c r="J18" t="n">
         <v>0.84</v>
       </c>
-      <c r="D18">
+      <c r="K18" t="n">
         <v>0.82</v>
       </c>
-      <c r="E18">
+      <c r="L18" t="n">
         <v>0.9</v>
       </c>
-      <c r="F18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G18">
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.94</v>
       </c>
-      <c r="H18">
+      <c r="O18" t="n">
         <v>1.02</v>
       </c>
-      <c r="I18">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J18">
+      <c r="P18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.24</v>
       </c>
-      <c r="K18">
+      <c r="R18" t="n">
         <v>0.69</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.84</v>
       </c>
-      <c r="C19">
+      <c r="I19" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.89</v>
       </c>
-      <c r="D19">
+      <c r="K19" t="n">
         <v>0.86</v>
       </c>
-      <c r="E19">
+      <c r="L19" t="n">
         <v>0.81</v>
       </c>
-      <c r="F19">
+      <c r="M19" t="n">
         <v>1.06</v>
       </c>
-      <c r="G19">
+      <c r="N19" t="n">
         <v>0.97</v>
       </c>
-      <c r="H19">
+      <c r="O19" t="n">
         <v>1.06</v>
       </c>
-      <c r="I19">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="Q19" t="n">
         <v>1.03</v>
       </c>
-      <c r="K19">
+      <c r="R19" t="n">
         <v>0.67</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.89</v>
       </c>
-      <c r="C20">
+      <c r="J20" t="n">
         <v>0.9</v>
       </c>
-      <c r="D20">
+      <c r="K20" t="n">
         <v>0.17</v>
       </c>
-      <c r="E20">
+      <c r="L20" t="n">
         <v>0.12</v>
       </c>
-      <c r="F20">
+      <c r="M20" t="n">
         <v>0.84</v>
       </c>
-      <c r="G20">
+      <c r="N20" t="n">
         <v>0.87</v>
       </c>
-      <c r="H20">
+      <c r="O20" t="n">
         <v>1.26</v>
       </c>
-      <c r="I20">
+      <c r="P20" t="n">
         <v>1.17</v>
       </c>
-      <c r="J20">
+      <c r="Q20" t="n">
         <v>0.95</v>
       </c>
-      <c r="K20">
+      <c r="R20" t="n">
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.86</v>
       </c>
-      <c r="C21">
+      <c r="J21" t="n">
         <v>0.85</v>
       </c>
-      <c r="D21">
+      <c r="K21" t="n">
         <v>0.99</v>
       </c>
-      <c r="E21">
+      <c r="L21" t="n">
         <v>0.85</v>
       </c>
-      <c r="F21">
+      <c r="M21" t="n">
         <v>1.32</v>
       </c>
-      <c r="G21">
+      <c r="N21" t="n">
         <v>1.87</v>
       </c>
-      <c r="H21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I21">
+      <c r="O21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.95</v>
       </c>
-      <c r="J21">
+      <c r="Q21" t="n">
         <v>1.72</v>
       </c>
-      <c r="K21">
+      <c r="R21" t="n">
         <v>1.02</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.69</v>
       </c>
-      <c r="C22">
+      <c r="J22" t="n">
         <v>0.72</v>
       </c>
-      <c r="D22">
+      <c r="K22" t="n">
         <v>0.78</v>
       </c>
-      <c r="E22">
+      <c r="L22" t="n">
         <v>0.81</v>
       </c>
-      <c r="F22">
+      <c r="M22" t="n">
         <v>0.95</v>
       </c>
-      <c r="G22">
+      <c r="N22" t="n">
         <v>0.88</v>
       </c>
-      <c r="H22">
+      <c r="O22" t="n">
         <v>0.99</v>
       </c>
-      <c r="I22">
+      <c r="P22" t="n">
         <v>0.93</v>
       </c>
-      <c r="J22">
+      <c r="Q22" t="n">
         <v>0.86</v>
       </c>
-      <c r="K22">
+      <c r="R22" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
+        <v>39</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.43</v>
       </c>
-      <c r="C23">
+      <c r="J23" t="n">
         <v>0.91</v>
       </c>
-      <c r="D23">
+      <c r="K23" t="n">
         <v>0.84</v>
       </c>
-      <c r="E23">
+      <c r="L23" t="n">
         <v>0.77</v>
       </c>
-      <c r="F23">
+      <c r="M23" t="n">
         <v>0.98</v>
       </c>
-      <c r="G23">
+      <c r="N23" t="n">
         <v>0.65</v>
       </c>
-      <c r="H23">
+      <c r="O23" t="n">
         <v>0.97</v>
       </c>
-      <c r="I23">
+      <c r="P23" t="n">
         <v>0.9</v>
       </c>
-      <c r="J23">
+      <c r="Q23" t="n">
         <v>1.03</v>
       </c>
-      <c r="K23">
+      <c r="R23" t="n">
         <v>0.59</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.78</v>
       </c>
-      <c r="C24">
+      <c r="J24" t="n">
         <v>0.86</v>
       </c>
-      <c r="D24">
+      <c r="K24" t="n">
         <v>0.79</v>
       </c>
-      <c r="E24">
+      <c r="L24" t="n">
         <v>0.85</v>
       </c>
-      <c r="F24">
+      <c r="M24" t="n">
         <v>1.05</v>
       </c>
-      <c r="G24">
+      <c r="N24" t="n">
         <v>0.93</v>
       </c>
-      <c r="H24">
+      <c r="O24" t="n">
         <v>1.03</v>
       </c>
-      <c r="I24">
+      <c r="P24" t="n">
         <v>1.01</v>
       </c>
-      <c r="J24">
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="R24" t="n">
         <v>0.64</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.72</v>
       </c>
-      <c r="C25">
+      <c r="J25" t="n">
         <v>0.73</v>
       </c>
-      <c r="D25">
+      <c r="K25" t="n">
         <v>0.63</v>
       </c>
-      <c r="E25">
+      <c r="L25" t="n">
         <v>0.73</v>
       </c>
-      <c r="F25">
+      <c r="M25" t="n">
         <v>0.87</v>
       </c>
-      <c r="G25">
+      <c r="N25" t="n">
         <v>0.88</v>
       </c>
-      <c r="H25">
+      <c r="O25" t="n">
         <v>1.01</v>
       </c>
-      <c r="I25">
+      <c r="P25" t="n">
         <v>0.77</v>
       </c>
-      <c r="J25">
+      <c r="Q25" t="n">
         <v>0.54</v>
       </c>
-      <c r="K25">
+      <c r="R25" t="n">
         <v>0.67</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.92</v>
       </c>
-      <c r="C26">
+      <c r="E26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.91</v>
       </c>
-      <c r="D26">
+      <c r="K26" t="n">
         <v>0.85</v>
       </c>
-      <c r="E26">
+      <c r="L26" t="n">
         <v>0.8</v>
       </c>
-      <c r="F26">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G26">
+      <c r="M26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.04</v>
       </c>
-      <c r="H26">
+      <c r="O26" t="n">
         <v>0.96</v>
       </c>
-      <c r="I26">
+      <c r="P26" t="n">
         <v>1.01</v>
       </c>
-      <c r="J26">
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="R26" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
+        <v>43</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.81</v>
       </c>
-      <c r="C27">
+      <c r="J27" t="n">
         <v>0.86</v>
       </c>
-      <c r="D27">
+      <c r="K27" t="n">
         <v>0.92</v>
       </c>
-      <c r="E27">
+      <c r="L27" t="n">
         <v>0.88</v>
       </c>
-      <c r="F27">
+      <c r="M27" t="n">
         <v>0.95</v>
       </c>
-      <c r="G27">
+      <c r="N27" t="n">
         <v>0.89</v>
       </c>
-      <c r="H27">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I27">
+      <c r="O27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.06</v>
       </c>
-      <c r="J27">
+      <c r="Q27" t="n">
         <v>0.91</v>
       </c>
-      <c r="K27">
+      <c r="R27" t="n">
         <v>0.71</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
+        <v>44</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.7</v>
       </c>
-      <c r="C28">
+      <c r="J28" t="n">
         <v>0.79</v>
       </c>
-      <c r="D28">
+      <c r="K28" t="n">
         <v>0.54</v>
       </c>
-      <c r="E28">
+      <c r="L28" t="n">
         <v>0.39</v>
       </c>
-      <c r="F28">
+      <c r="M28" t="n">
         <v>0.24</v>
       </c>
-      <c r="G28">
+      <c r="N28" t="n">
         <v>0.38</v>
       </c>
-      <c r="H28">
+      <c r="O28" t="n">
         <v>7.99</v>
       </c>
-      <c r="I28">
+      <c r="P28" t="n">
         <v>0.67</v>
       </c>
-      <c r="J28">
+      <c r="Q28" t="n">
         <v>1.46</v>
       </c>
-      <c r="K28">
+      <c r="R28" t="n">
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.66</v>
       </c>
-      <c r="C29">
+      <c r="J29" t="n">
         <v>0.67</v>
       </c>
-      <c r="D29">
+      <c r="K29" t="n">
         <v>0.71</v>
       </c>
-      <c r="E29">
+      <c r="L29" t="n">
         <v>0.82</v>
       </c>
-      <c r="F29">
+      <c r="M29" t="n">
         <v>1.4</v>
       </c>
-      <c r="G29">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H29">
+      <c r="N29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.66</v>
       </c>
-      <c r="I29">
+      <c r="P29" t="n">
         <v>1.53</v>
       </c>
-      <c r="J29">
+      <c r="Q29" t="n">
         <v>2.17</v>
       </c>
-      <c r="K29">
+      <c r="R29" t="n">
         <v>1.91</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.83</v>
       </c>
-      <c r="C30">
+      <c r="J30" t="n">
         <v>0.87</v>
       </c>
-      <c r="D30">
+      <c r="K30" t="n">
         <v>0.9</v>
       </c>
-      <c r="E30">
+      <c r="L30" t="n">
         <v>0.9</v>
       </c>
-      <c r="F30">
+      <c r="M30" t="n">
         <v>1.07</v>
       </c>
-      <c r="G30">
+      <c r="N30" t="n">
         <v>0.99</v>
       </c>
-      <c r="H30">
+      <c r="O30" t="n">
         <v>0.69</v>
       </c>
-      <c r="I30">
+      <c r="P30" t="n">
         <v>0.8</v>
       </c>
-      <c r="J30">
+      <c r="Q30" t="n">
         <v>0.92</v>
       </c>
-      <c r="K30">
+      <c r="R30" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.85</v>
       </c>
-      <c r="C31">
+      <c r="J31" t="n">
         <v>0.9</v>
       </c>
-      <c r="D31">
+      <c r="K31" t="n">
         <v>0.63</v>
       </c>
-      <c r="E31">
+      <c r="L31" t="n">
         <v>0.64</v>
       </c>
-      <c r="F31">
+      <c r="M31" t="n">
         <v>1.04</v>
       </c>
-      <c r="G31">
+      <c r="N31" t="n">
         <v>1.05</v>
       </c>
-      <c r="H31">
+      <c r="O31" t="n">
         <v>1.03</v>
       </c>
-      <c r="I31">
+      <c r="P31" t="n">
         <v>1.04</v>
       </c>
-      <c r="J31">
+      <c r="Q31" t="n">
         <v>1.04</v>
       </c>
-      <c r="K31">
+      <c r="R31" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
+        <v>48</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.8</v>
       </c>
-      <c r="C32">
+      <c r="J32" t="n">
         <v>0.84</v>
       </c>
-      <c r="D32">
+      <c r="K32" t="n">
         <v>0.95</v>
       </c>
-      <c r="E32">
+      <c r="L32" t="n">
         <v>0.87</v>
       </c>
-      <c r="F32">
+      <c r="M32" t="n">
         <v>1.01</v>
       </c>
-      <c r="G32">
+      <c r="N32" t="n">
         <v>0.98</v>
       </c>
-      <c r="H32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I32">
+      <c r="O32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.08</v>
       </c>
-      <c r="J32">
+      <c r="Q32" t="n">
         <v>1.03</v>
       </c>
-      <c r="K32">
+      <c r="R32" t="n">
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33">
+        <v>49</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="n">
         <v>0.88</v>
       </c>
-      <c r="G33">
+      <c r="N33" t="n">
         <v>0.94</v>
       </c>
-      <c r="H33">
+      <c r="O33" t="n">
         <v>0.88</v>
       </c>
-      <c r="I33">
+      <c r="P33" t="n">
         <v>0.97</v>
       </c>
-      <c r="J33">
+      <c r="Q33" t="n">
         <v>0.97</v>
       </c>
-      <c r="K33">
+      <c r="R33" t="n">
         <v>0.67</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.71</v>
       </c>
-      <c r="C34">
+      <c r="J34" t="n">
         <v>0.86</v>
       </c>
-      <c r="D34">
+      <c r="K34" t="n">
         <v>0.86</v>
       </c>
-      <c r="E34">
+      <c r="L34" t="n">
         <v>0.91</v>
       </c>
-      <c r="F34">
+      <c r="M34" t="n">
         <v>1.05</v>
       </c>
-      <c r="G34">
+      <c r="N34" t="n">
         <v>0.96</v>
       </c>
-      <c r="H34">
+      <c r="O34" t="n">
         <v>0.99</v>
       </c>
-      <c r="I34">
+      <c r="P34" t="n">
         <v>0.99</v>
       </c>
-      <c r="J34">
+      <c r="Q34" t="n">
         <v>0.99</v>
       </c>
-      <c r="K34">
+      <c r="R34" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
+        <v>51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.82</v>
       </c>
-      <c r="C35">
+      <c r="J35" t="n">
         <v>0.88</v>
       </c>
-      <c r="D35">
+      <c r="K35" t="n">
         <v>0.92</v>
       </c>
-      <c r="E35">
+      <c r="L35" t="n">
         <v>0.82</v>
       </c>
-      <c r="F35">
+      <c r="M35" t="n">
         <v>0.9</v>
       </c>
-      <c r="G35">
+      <c r="N35" t="n">
         <v>0.98</v>
       </c>
-      <c r="H35">
+      <c r="O35" t="n">
         <v>0.92</v>
       </c>
-      <c r="I35">
+      <c r="P35" t="n">
         <v>0.98</v>
       </c>
-      <c r="J35">
+      <c r="Q35" t="n">
         <v>0.95</v>
       </c>
-      <c r="K35">
+      <c r="R35" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
+        <v>52</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.69</v>
       </c>
-      <c r="C36">
+      <c r="J36" t="n">
         <v>0.73</v>
       </c>
-      <c r="D36">
+      <c r="K36" t="n">
         <v>0.75</v>
       </c>
-      <c r="E36">
+      <c r="L36" t="n">
         <v>0.81</v>
       </c>
-      <c r="F36">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="G36">
+      <c r="N36" t="n">
         <v>0.9</v>
       </c>
-      <c r="H36">
+      <c r="O36" t="n">
         <v>0.9</v>
       </c>
-      <c r="I36">
+      <c r="P36" t="n">
         <v>1.02</v>
       </c>
-      <c r="J36">
+      <c r="Q36" t="n">
         <v>1</v>
       </c>
-      <c r="K36">
+      <c r="R36" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I37" t="n">
         <v>0.77</v>
       </c>
-      <c r="C37">
+      <c r="J37" t="n">
         <v>0.78</v>
       </c>
-      <c r="D37">
+      <c r="K37" t="n">
         <v>0.86</v>
       </c>
-      <c r="E37">
+      <c r="L37" t="n">
         <v>0.79</v>
       </c>
-      <c r="F37">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="G37">
+      <c r="N37" t="n">
         <v>0.93</v>
       </c>
-      <c r="H37">
+      <c r="O37" t="n">
         <v>1.08</v>
       </c>
-      <c r="I37">
+      <c r="P37" t="n">
         <v>1.03</v>
       </c>
-      <c r="J37">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K37">
+      <c r="Q37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R37" t="n">
         <v>0.93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/utilisation_ratio_state_wise_2010_2019.xlsx
+++ b/Data/utilisation_ratio_state_wise_2010_2019.xlsx
@@ -1,186 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="2010-2019" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">State.UT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A&amp;N ISLANDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDHRA PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUNACHAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANDIGARH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHHATTISGARH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;N HAVELI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAMAN &amp; DIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUJARAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARYANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIMACHAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J &amp; K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JHARKHAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARNATAKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KERALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAKSHADWEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADHYA PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAHARASHTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANIPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGHALAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIZORAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAGALAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORISSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONDICHERRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUNJAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAJASTHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIKKIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMILNADU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELANGANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIPURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTTAR PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTTRANCHAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEST BENGAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+  <si>
+    <t>State.UT</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>A&amp;N ISLANDS</t>
+  </si>
+  <si>
+    <t>ANDHRA PR</t>
+  </si>
+  <si>
+    <t>ARUNACHAL</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>CHANDIGARH</t>
+  </si>
+  <si>
+    <t>CHHATTISGARH</t>
+  </si>
+  <si>
+    <t>D&amp;N HAVELI</t>
+  </si>
+  <si>
+    <t>DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>GUJARAT</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
+    <t>HIMACHAL</t>
+  </si>
+  <si>
+    <t>J &amp; K</t>
+  </si>
+  <si>
+    <t>JHARKHAND</t>
+  </si>
+  <si>
+    <t>KARNATAKA</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>LAKSHADWEEP</t>
+  </si>
+  <si>
+    <t>MADHYA PR</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>MANIPUR</t>
+  </si>
+  <si>
+    <t>MEGHALAYA</t>
+  </si>
+  <si>
+    <t>MIZORAM</t>
+  </si>
+  <si>
+    <t>NAGALAND</t>
+  </si>
+  <si>
+    <t>ORISSA</t>
+  </si>
+  <si>
+    <t>PONDICHERRY</t>
+  </si>
+  <si>
+    <t>PUNJAB</t>
+  </si>
+  <si>
+    <t>RAJASTHAN</t>
+  </si>
+  <si>
+    <t>SIKKIM</t>
+  </si>
+  <si>
+    <t>TAMILNADU</t>
+  </si>
+  <si>
+    <t>TELANGANA</t>
+  </si>
+  <si>
+    <t>TRIPURA</t>
+  </si>
+  <si>
+    <t>UTTAR PR</t>
+  </si>
+  <si>
+    <t>UTTRANCHAL</t>
+  </si>
+  <si>
+    <t>WEST BENGAL</t>
+  </si>
+  <si>
+    <t>All India</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -210,13 +245,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -498,14 +537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:R37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,2002 +602,3329 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.46</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.34</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.59</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.68</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H2">
         <v>0.45</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2">
         <v>0.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.27</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>0.08</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>0.54</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>0.61</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>0.68</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q2">
         <v>0.59</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>0.31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.71</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.76</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.85</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.87</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.96</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.95</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.86</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.76</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.74</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.99</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>0.83</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>0.96</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>0.99</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>0.95</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>0.98</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.72</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.06</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.69</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4">
         <v>0.69</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.81</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.75</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.75</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.76</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.76</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.73</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>1.01</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>0.93</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>1.04</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>0.99</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>0.59</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.74</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.79</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.83</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.93</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.03</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.94</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.79</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.78</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.76</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.9</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.87</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>1.06</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>0.97</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>0.98</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>0.91</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>0.96</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="R5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.3</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G6">
         <v>0.54</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.63</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.76</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.7</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.69</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>0.8</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>0.9</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>0.94</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>0.97</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>0.94</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.02</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.02</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.01</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.01</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.82</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.38</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.98</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.47</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.72</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.31</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.32</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1.34</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>2.9</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>26.63</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>25.91</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>82.41</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>32.18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.34</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
         <v>0.38</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8">
         <v>0.93</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.88</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.92</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.93</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.86</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.87</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>0.84</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1.01</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>0.97</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>0.93</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>0.97</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>0.95</v>
       </c>
-      <c r="R8" t="n">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="R8">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.35</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E9">
         <v>0.32</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.11</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.06</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.19</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.87</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L9">
         <v>0.32</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N9">
         <v>0.97</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>0.96</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>0.98</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>0.85</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>0.62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.08</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.11</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.25</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.11</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.12</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.22</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.71</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.15</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>0.04</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>0.43</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>0.81</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>0.89</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>0.95</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>0.85</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>0.72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.46</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.52</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.7</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.94</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.89</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.75</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.73</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.71</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.73</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>0.82</v>
       </c>
-      <c r="M11" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N11">
         <v>1.66</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1.92</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>0.99</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>0.92</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.19</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.17</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.27</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.91</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.73</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.78</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.7</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0.84</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>0.54</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>0.73</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N12">
         <v>0.98</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1.24</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>0.98</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>1.22</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.27</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.27</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13">
         <v>0.41</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.79</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.83</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.61</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0.72</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1.22</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>1.3</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>0.97</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>1.01</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>0.86</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>0.73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.92</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.62</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.34</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.72</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.65</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.49</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.75</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.76</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.73</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>0.86</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>1.53</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>2.4</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>1.87</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>0.92</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>4.5</v>
       </c>
-      <c r="R14" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="R14">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C15">
         <v>0.61</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.66</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.85</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.96</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.93</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0.75</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.75</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.86</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.85</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>0.9</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>1.07</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>1.01</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>1.04</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>0.97</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>0.84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.81</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.78</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.92</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.83</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.98</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.02</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>0.92</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.76</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.88</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.85</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>0.87</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>1.08</v>
       </c>
-      <c r="N16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="N16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O16">
         <v>1.48</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>1.19</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>1.28</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>0.81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.38</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.6</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.65</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.78</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.75</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.71</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.72</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>0.7</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>0.77</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>0.78</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>0.91</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>0.93</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>0.97</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>0.62</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.69</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.76</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.74</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.74</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.89</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.86</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.78</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.84</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>0.82</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>0.9</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N18">
         <v>0.94</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>1.02</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Q18">
         <v>1.24</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>0.69</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.37</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.42</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.44</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.45</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.99</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.9</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.84</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.84</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.89</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>0.86</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>0.81</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>1.06</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>0.97</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>1.06</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>1.03</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>0.67</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.6</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.06</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1.5</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.72</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.74</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.87</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.89</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.9</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.17</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>0.12</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>0.84</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>0.87</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>1.26</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>1.17</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>0.95</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>0.42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.48</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.42</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.53</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.68</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.97</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.92</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.89</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.86</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.85</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.99</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>0.85</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>1.32</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>1.87</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="O21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P21">
         <v>0.95</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>1.72</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>1.02</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.35</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.41</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.42</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.53</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.85</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.83</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.7</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.69</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.72</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.78</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>0.81</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>0.95</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>0.88</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>0.99</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>0.93</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>0.86</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>0.68</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.74</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.61</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.67</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.75</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.9</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.79</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.91</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.43</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.91</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.84</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>0.77</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>0.98</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>0.65</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>0.97</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>0.9</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>1.03</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>0.59</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.8</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.9</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.88</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.97</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.97</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.98</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.88</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.78</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.86</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.79</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>0.85</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>1.05</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>0.93</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>1.03</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>1.01</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>0.64</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.87</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.91</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.7</v>
       </c>
-      <c r="E25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F25">
         <v>0.87</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.9</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.77</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.72</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>0.73</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>0.63</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>0.73</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>0.87</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>0.88</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>1.01</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>0.77</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>0.54</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>0.67</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.9</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.01</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.92</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1.17</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.05</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26">
         <v>0.87</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.92</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>0.91</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>0.85</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>0.8</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N26">
         <v>1.04</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>0.96</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>1.01</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>0.62</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.52</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.51</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="D27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F27">
         <v>0.84</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.92</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>0.9</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.81</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>0.86</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>0.92</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>0.88</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>0.95</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>0.89</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="O27">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P27">
         <v>1.06</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>0.91</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>0.71</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.45</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.01</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.68</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.25</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.35</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>0.47</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.7</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.79</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.54</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>0.39</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>0.24</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>0.38</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>7.99</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>0.67</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>1.46</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>1.32</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C29">
         <v>0.62</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.19</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.26</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.72</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.81</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0.67</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.66</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.67</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.71</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>0.82</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>1.4</v>
       </c>
-      <c r="N29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="N29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O29">
         <v>1.66</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>1.53</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>2.17</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>1.91</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.59</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.44</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.43</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.52</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.01</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.95</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.91</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.83</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.87</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.9</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>0.9</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>1.07</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>0.99</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>0.69</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>0.8</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>0.92</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.75</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.84</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1.01</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.07</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.96</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.94</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.85</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.9</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.63</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>0.64</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>1.04</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>1.05</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>1.03</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>1.04</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>1.04</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>0.62</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.46</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.53</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.67</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.61</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.78</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1.02</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0.98</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.84</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.95</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>0.87</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>1.01</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>0.98</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="O32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P32">
         <v>1.08</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>1.03</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>0.67</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>0.88</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>0.94</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>0.88</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>0.97</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>0.97</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>0.67</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.62</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.75</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.65</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.77</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.96</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>0.92</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>0.81</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.71</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.86</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.86</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>0.91</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>1.05</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>0.96</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>0.99</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>0.99</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>0.99</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>0.62</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.34</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.23</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.39</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.52</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.88</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.85</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>0.84</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.82</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>0.88</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.92</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>0.82</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>0.9</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>0.98</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>0.92</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>0.98</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>0.95</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>0.8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.51</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.3</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.67</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.6</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.88</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.78</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>0.84</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.69</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0.73</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.75</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>0.81</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>0.9</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>0.9</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>1.02</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>1</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>0.83</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.39</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.41</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.47</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.45</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.83</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.86</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>0.82</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.77</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.78</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.86</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>0.79</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>0.93</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>1.08</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>1.03</v>
       </c>
-      <c r="Q37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="Q37">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R37">
         <v>0.93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="11" width="7.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>26.63</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25.91</v>
+      </c>
+      <c r="J7" s="1">
+        <v>82.41</v>
+      </c>
+      <c r="K7" s="1">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>